--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.126926</v>
+        <v>0.2233853333333333</v>
       </c>
       <c r="H2">
-        <v>0.3807779999999999</v>
+        <v>0.670156</v>
       </c>
       <c r="I2">
-        <v>0.0991549081585794</v>
+        <v>0.181392316683816</v>
       </c>
       <c r="J2">
-        <v>0.124314443606855</v>
+        <v>0.2059465991073217</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N2">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O2">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P2">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q2">
-        <v>0.03260936252466667</v>
+        <v>0.002060506314666667</v>
       </c>
       <c r="R2">
-        <v>0.293484262722</v>
+        <v>0.018544556832</v>
       </c>
       <c r="S2">
-        <v>0.02136394321410863</v>
+        <v>0.003019655139035341</v>
       </c>
       <c r="T2">
-        <v>0.03037801396644617</v>
+        <v>0.003496777950363521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.126926</v>
+        <v>0.2233853333333333</v>
       </c>
       <c r="H3">
-        <v>0.3807779999999999</v>
+        <v>0.670156</v>
       </c>
       <c r="I3">
-        <v>0.0991549081585794</v>
+        <v>0.181392316683816</v>
       </c>
       <c r="J3">
-        <v>0.124314443606855</v>
+        <v>0.2059465991073217</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.537103</v>
       </c>
       <c r="O3">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P3">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q3">
-        <v>0.06503277845933332</v>
+        <v>0.1144554220075556</v>
       </c>
       <c r="R3">
-        <v>0.585295006134</v>
+        <v>1.030098798068</v>
       </c>
       <c r="S3">
-        <v>0.04260606397963023</v>
+        <v>0.1677334841419717</v>
       </c>
       <c r="T3">
-        <v>0.06058280504011851</v>
+        <v>0.1942363355679972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.126926</v>
+        <v>0.2233853333333333</v>
       </c>
       <c r="H4">
-        <v>0.3807779999999999</v>
+        <v>0.670156</v>
       </c>
       <c r="I4">
-        <v>0.0991549081585794</v>
+        <v>0.181392316683816</v>
       </c>
       <c r="J4">
-        <v>0.124314443606855</v>
+        <v>0.2059465991073217</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N4">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O4">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P4">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q4">
-        <v>0.05370530989799999</v>
+        <v>0.007259799948</v>
       </c>
       <c r="R4">
-        <v>0.322231859388</v>
+        <v>0.043558799688</v>
       </c>
       <c r="S4">
-        <v>0.03518490096484052</v>
+        <v>0.01063917740280893</v>
       </c>
       <c r="T4">
-        <v>0.03335362460029037</v>
+        <v>0.008213485588960977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>0.6566689999999999</v>
       </c>
       <c r="I5">
-        <v>0.1709971542095031</v>
+        <v>0.1777417664013226</v>
       </c>
       <c r="J5">
-        <v>0.2143859187475902</v>
+        <v>0.2018018898423738</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N5">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O5">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P5">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q5">
-        <v>0.05623633056455556</v>
+        <v>0.002019038285333333</v>
       </c>
       <c r="R5">
-        <v>0.506126975081</v>
+        <v>0.018171344568</v>
       </c>
       <c r="S5">
-        <v>0.03684309289524475</v>
+        <v>0.002958884081460434</v>
       </c>
       <c r="T5">
-        <v>0.05238826836984341</v>
+        <v>0.003426404717539294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.6566689999999999</v>
       </c>
       <c r="I6">
-        <v>0.1709971542095031</v>
+        <v>0.1777417664013226</v>
       </c>
       <c r="J6">
-        <v>0.2143859187475902</v>
+        <v>0.2018018898423738</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>1.537103</v>
       </c>
       <c r="O6">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P6">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q6">
         <v>0.1121519877674444</v>
@@ -824,10 +824,10 @@
         <v>1.009367889907</v>
       </c>
       <c r="S6">
-        <v>0.07347609743062836</v>
+        <v>0.1643578201165466</v>
       </c>
       <c r="T6">
-        <v>0.1044778059732694</v>
+        <v>0.1903272972876482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>0.6566689999999999</v>
       </c>
       <c r="I7">
-        <v>0.1709971542095031</v>
+        <v>0.1777417664013226</v>
       </c>
       <c r="J7">
-        <v>0.2143859187475902</v>
+        <v>0.2018018898423738</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N7">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O7">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P7">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q7">
-        <v>0.092617252429</v>
+        <v>0.007113695276999999</v>
       </c>
       <c r="R7">
-        <v>0.555703514574</v>
+        <v>0.04268217166199999</v>
       </c>
       <c r="S7">
-        <v>0.06067796388362999</v>
+        <v>0.01042506220331555</v>
       </c>
       <c r="T7">
-        <v>0.05751984440447735</v>
+        <v>0.008048187837186291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.106095</v>
+        <v>0.165029</v>
       </c>
       <c r="H8">
-        <v>0.318285</v>
+        <v>0.4950869999999999</v>
       </c>
       <c r="I8">
-        <v>0.08288167893957489</v>
+        <v>0.1340060790174831</v>
       </c>
       <c r="J8">
-        <v>0.1039120502849636</v>
+        <v>0.1521458942578244</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N8">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O8">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P8">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q8">
-        <v>0.027257538385</v>
+        <v>0.001522227496</v>
       </c>
       <c r="R8">
-        <v>0.245317845465</v>
+        <v>0.013700047464</v>
       </c>
       <c r="S8">
-        <v>0.01785770886422684</v>
+        <v>0.002230811936056068</v>
       </c>
       <c r="T8">
-        <v>0.02539239707995293</v>
+        <v>0.002583293002094474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.106095</v>
+        <v>0.165029</v>
       </c>
       <c r="H9">
-        <v>0.318285</v>
+        <v>0.4950869999999999</v>
       </c>
       <c r="I9">
-        <v>0.08288167893957489</v>
+        <v>0.1340060790174831</v>
       </c>
       <c r="J9">
-        <v>0.1039120502849636</v>
+        <v>0.1521458942578244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>1.537103</v>
       </c>
       <c r="O9">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P9">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q9">
-        <v>0.054359647595</v>
+        <v>0.08455552366233332</v>
       </c>
       <c r="R9">
-        <v>0.489236828355</v>
+        <v>0.760999712961</v>
       </c>
       <c r="S9">
-        <v>0.03561358868883342</v>
+        <v>0.1239154278457499</v>
       </c>
       <c r="T9">
-        <v>0.05064000047847859</v>
+        <v>0.1434947753468641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.106095</v>
+        <v>0.165029</v>
       </c>
       <c r="H10">
-        <v>0.318285</v>
+        <v>0.4950869999999999</v>
       </c>
       <c r="I10">
-        <v>0.08288167893957489</v>
+        <v>0.1340060790174831</v>
       </c>
       <c r="J10">
-        <v>0.1039120502849636</v>
+        <v>0.1521458942578244</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N10">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O10">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P10">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q10">
-        <v>0.044891234685</v>
+        <v>0.005363277470999999</v>
       </c>
       <c r="R10">
-        <v>0.26934740811</v>
+        <v>0.03217966482599999</v>
       </c>
       <c r="S10">
-        <v>0.02941038138651463</v>
+        <v>0.007859839235677162</v>
       </c>
       <c r="T10">
-        <v>0.02787965272653205</v>
+        <v>0.00606782590886588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.7772105</v>
+        <v>0.4404835</v>
       </c>
       <c r="H11">
-        <v>1.554421</v>
+        <v>0.8809669999999999</v>
       </c>
       <c r="I11">
-        <v>0.6071587834437672</v>
+        <v>0.3576793576092536</v>
       </c>
       <c r="J11">
-        <v>0.507479375767012</v>
+        <v>0.2707312291105055</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N11">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O11">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P11">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q11">
-        <v>0.1996780718881667</v>
+        <v>0.004063019804</v>
       </c>
       <c r="R11">
-        <v>1.198068431329</v>
+        <v>0.024378118824</v>
       </c>
       <c r="S11">
-        <v>0.1308185949877013</v>
+        <v>0.005954322267212144</v>
       </c>
       <c r="T11">
-        <v>0.1240098504843694</v>
+        <v>0.004596759531508932</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.7772105</v>
+        <v>0.4404835</v>
       </c>
       <c r="H12">
-        <v>1.554421</v>
+        <v>0.8809669999999999</v>
       </c>
       <c r="I12">
-        <v>0.6071587834437672</v>
+        <v>0.3576793576092536</v>
       </c>
       <c r="J12">
-        <v>0.507479375767012</v>
+        <v>0.2707312291105055</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>1.537103</v>
       </c>
       <c r="O12">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P12">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q12">
-        <v>0.3982175303938333</v>
+        <v>0.2256895031001666</v>
       </c>
       <c r="R12">
-        <v>2.389305182363</v>
+        <v>1.354137018601</v>
       </c>
       <c r="S12">
-        <v>0.2608912302336827</v>
+        <v>0.3307461195395558</v>
       </c>
       <c r="T12">
-        <v>0.2473125663595745</v>
+        <v>0.2553372674964215</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.7772105</v>
+        <v>0.4404835</v>
       </c>
       <c r="H13">
-        <v>1.554421</v>
+        <v>0.8809669999999999</v>
       </c>
       <c r="I13">
-        <v>0.6071587834437672</v>
+        <v>0.3576793576092536</v>
       </c>
       <c r="J13">
-        <v>0.507479375767012</v>
+        <v>0.2707312291105055</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N13">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O13">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P13">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q13">
-        <v>0.3288556383915</v>
+        <v>0.0143152732665</v>
       </c>
       <c r="R13">
-        <v>1.315422553566</v>
+        <v>0.057261093066</v>
       </c>
       <c r="S13">
-        <v>0.215448958222383</v>
+        <v>0.02097891580248563</v>
       </c>
       <c r="T13">
-        <v>0.136156958923068</v>
+        <v>0.01079720208257508</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05095666666666667</v>
+        <v>0.1837163333333333</v>
       </c>
       <c r="H14">
-        <v>0.15287</v>
+        <v>0.551149</v>
       </c>
       <c r="I14">
-        <v>0.03980747524857538</v>
+        <v>0.1491804802881247</v>
       </c>
       <c r="J14">
-        <v>0.04990821159357929</v>
+        <v>0.1693743876819745</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2569163333333334</v>
+        <v>0.009224</v>
       </c>
       <c r="N14">
-        <v>0.770749</v>
+        <v>0.027672</v>
       </c>
       <c r="O14">
-        <v>0.2154602692984302</v>
+        <v>0.01664709506025488</v>
       </c>
       <c r="P14">
-        <v>0.2443643158836536</v>
+        <v>0.01697905168388481</v>
       </c>
       <c r="Q14">
-        <v>0.01309159995888889</v>
+        <v>0.001694599458666667</v>
       </c>
       <c r="R14">
-        <v>0.11782439963</v>
+        <v>0.015251395128</v>
       </c>
       <c r="S14">
-        <v>0.008576929337148648</v>
+        <v>0.002483421636490891</v>
       </c>
       <c r="T14">
-        <v>0.01219578598304163</v>
+        <v>0.002875816482378587</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05095666666666667</v>
+        <v>0.1837163333333333</v>
       </c>
       <c r="H15">
-        <v>0.15287</v>
+        <v>0.551149</v>
       </c>
       <c r="I15">
-        <v>0.03980747524857538</v>
+        <v>0.1491804802881247</v>
       </c>
       <c r="J15">
-        <v>0.04990821159357929</v>
+        <v>0.1693743876819745</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>1.537103</v>
       </c>
       <c r="O15">
-        <v>0.4296919312505433</v>
+        <v>0.9247000490894389</v>
       </c>
       <c r="P15">
-        <v>0.4873352064520506</v>
+        <v>0.9431393206293146</v>
       </c>
       <c r="Q15">
-        <v>0.02610854840111111</v>
+        <v>0.09413030903855556</v>
       </c>
       <c r="R15">
-        <v>0.23497693561</v>
+        <v>0.847172781347</v>
       </c>
       <c r="S15">
-        <v>0.01710495091776856</v>
+        <v>0.137947197445615</v>
       </c>
       <c r="T15">
-        <v>0.02432202860060959</v>
+        <v>0.1597436449303835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05095666666666667</v>
+        <v>0.1837163333333333</v>
       </c>
       <c r="H16">
-        <v>0.15287</v>
+        <v>0.551149</v>
       </c>
       <c r="I16">
-        <v>0.03980747524857538</v>
+        <v>0.1491804802881247</v>
       </c>
       <c r="J16">
-        <v>0.04990821159357929</v>
+        <v>0.1693743876819745</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.423123</v>
+        <v>0.032499</v>
       </c>
       <c r="N16">
-        <v>0.8462460000000001</v>
+        <v>0.064998</v>
       </c>
       <c r="O16">
-        <v>0.3548477994510263</v>
+        <v>0.05865285585030608</v>
       </c>
       <c r="P16">
-        <v>0.2683004776642958</v>
+        <v>0.03988162768680055</v>
       </c>
       <c r="Q16">
-        <v>0.02156093767</v>
+        <v>0.005970597117</v>
       </c>
       <c r="R16">
-        <v>0.12936562602</v>
+        <v>0.035823582702</v>
       </c>
       <c r="S16">
-        <v>0.01412559499365817</v>
+        <v>0.008749861206018807</v>
       </c>
       <c r="T16">
-        <v>0.01339039700992807</v>
+        <v>0.006754926269212323</v>
       </c>
     </row>
   </sheetData>
